--- a/docs/oncocore-TNMClinicalPrognosticStagePanel.xlsx
+++ b/docs/oncocore-TNMClinicalPrognosticStagePanel.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$118</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="481">
   <si>
     <t>Path</t>
   </si>
@@ -150,7 +150,7 @@
     <t>oncocore-TNMClinicalPrognosticStagePanel</t>
   </si>
   <si>
-    <t>A panel of staging information that is performed prior to surgery, based on evidence such as physical examination, imaging, and/or biopsy.</t>
+    <t>A panel of TNM staging classifications, based on information obtained prior to neoadjuvant treatment and surgery, e.g. based on evidence such as physical examination, imaging, and/or biopsy.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as lab reports, etc.</t>
@@ -423,24 +423,24 @@
     <t>open</t>
   </si>
   <si>
-    <t>recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Recorder-extension]]} {[]}
+    <t>relatedcancercondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-RelatedCancerCondition-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The recorder of the information, if other than the information originator. For example, the nurse taking a list of medications reported by the patient.</t>
-  </si>
-  <si>
-    <t>focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Focus-extension]]} {[]}
+    <t>Cancer condition this information relates to.</t>
+  </si>
+  <si>
+    <t>cancerstagetiming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-CancerStageTiming-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The entity this condition or observation relates to, for example, a related person. The Focus is only required if the person or thing observed is different than the patient. Focus should not be an anatomical location. Examples: The focus for cancer progression would be the cancer condition; for wound length, an instance of a wound (a condition).</t>
+    <t>Indicates when staging was done, in terms of treatment landmarks.</t>
   </si>
   <si>
     <t>Observation.extension.id</t>
@@ -477,39 +477,10 @@
     <t>Source of the definition for the extension code - a logical name or a URL.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Focus-extension"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-CancerStageTiming-extension"/&gt;</t>
   </si>
   <si>
     <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Observation.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-DomainResource]]}
-CodeableConcept {[]} {[]}</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>cancerstagetiming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/oncocore-CancerStageTiming-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Indicates when staging was done, in terms of treatment landmarks.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/fhirURL/StructureDefinition/oncocore-CancerStageTiming-extension"/&gt;</t>
   </si>
   <si>
     <t>Observation.extension.valueCodeableConcept</t>
@@ -519,7 +490,16 @@
 </t>
   </si>
   <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/us/projectURL/oncocore/vs/CancerStageTimingVS</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Observation.extension.valueCodeableConcept.id</t>
@@ -849,7 +829,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Patient]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location]]}
 </t>
   </si>
   <si>
@@ -879,7 +859,7 @@
     <t>Observation.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-encounter-Encounter]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -953,7 +933,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Practitioner], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Organization], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Patient], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-RelatedPerson]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
 </t>
   </si>
   <si>
@@ -1162,7 +1142,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Device]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
 </t>
   </si>
   <si>
@@ -1389,7 +1369,7 @@
     <t>Observation.related.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/oncocore-TNMClinicalStageGroup]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-TNMClinicalStageGroup]]}
 </t>
   </si>
   <si>
@@ -1408,10 +1388,10 @@
     <t>TNMClinicalPrimaryTumorClassification</t>
   </si>
   <si>
-    <t>Classification based on the size and extent of the primary tumor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/oncocore-TNMClinicalPrimaryTumorClassification]]}
+    <t>Classification of the primary tumor, based on its size and extent, assessed prior to surgery, based on evidence such as physical examination, imaging, and/or biopsy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-TNMClinicalPrimaryTumorClassification]]}
 </t>
   </si>
   <si>
@@ -1421,10 +1401,10 @@
     <t>TNMClinicalRegionalNodesClassification</t>
   </si>
   <si>
-    <t>The presence of metastases in regional lymph nodes, assessed using tests that are done before surgery. These include physical exams, imaging tests, laboratory tests (such as blood tests), and biopsies. (adapted from NCI Dictionary of Cancer Terms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/oncocore-TNMClinicalRegionalNodesClassification]]}
+    <t>Classification of the presence or absence of metastases in regional lymph nodes, assessed using tests that are done before surgery. These include physical exams, imaging tests, laboratory tests (such as blood tests), and biopsies. (adapted from NCI Dictionary of Cancer Terms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-TNMClinicalRegionalNodesClassification]]}
 </t>
   </si>
   <si>
@@ -1434,10 +1414,10 @@
     <t>TNMClinicalDistantMetastasesClassification</t>
   </si>
   <si>
-    <t>The presence of metastases in remote anatomical locations, assessed using tests that are done before surgery. These include physical exams, imaging tests, laboratory tests (such as blood tests), and biopsies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/oncocore-TNMClinicalDistantMetastasesClassification]]}
+    <t>Classification of the presence or absense of metastases in remote anatomical locations, assessed using tests that are done before surgery. These include physical exams, imaging tests, laboratory tests (such as blood tests), and biopsies. (adapted from NCI Dictionary of Cancer Terms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-TNMClinicalDistantMetastasesClassification]]}
 </t>
   </si>
   <si>
@@ -1675,7 +1655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM123"/>
+  <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1684,44 +1664,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.3125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.95703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.0859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.5546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="94.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="64.57421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="28.80078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="66.40234375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="29.328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="128.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="102.734375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.0078125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="124.46875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3982,13 +3962,11 @@
         <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -4006,7 +3984,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -4032,11 +4010,9 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>42</v>
       </c>
@@ -4057,11 +4033,13 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="K23" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="L23" t="s" s="2">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4111,15 +4089,11 @@
       <c r="AD23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE23" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG23" s="2"/>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
@@ -4130,7 +4104,7 @@
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -4138,18 +4112,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>42</v>
@@ -4161,15 +4135,17 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -4217,15 +4193,11 @@
       <c r="AD24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE24" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="AE24" s="2"/>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG24" s="2"/>
       <c r="AH24" t="s" s="2">
         <v>42</v>
       </c>
@@ -4236,7 +4208,7 @@
         <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>42</v>
@@ -4244,7 +4216,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4252,10 +4224,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
@@ -4264,19 +4236,23 @@
         <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4312,26 +4288,20 @@
         <v>42</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="AE25" s="2"/>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG25" s="2"/>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4339,10 +4309,10 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -4350,9 +4320,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4370,16 +4342,16 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4388,7 +4360,7 @@
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>42</v>
@@ -4429,15 +4401,11 @@
       <c r="AD26" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE26" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="AE26" s="2"/>
       <c r="AF26" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG26" s="2"/>
       <c r="AH26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4448,7 +4416,7 @@
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -4456,7 +4424,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4464,7 +4432,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>51</v>
@@ -4479,13 +4447,13 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4512,11 +4480,13 @@
         <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4533,15 +4503,11 @@
       <c r="AD27" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE27" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="AE27" s="2"/>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG27" s="2"/>
       <c r="AH27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4552,7 +4518,7 @@
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4560,18 +4526,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4583,15 +4549,17 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4662,18 +4630,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4682,27 +4650,29 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>42</v>
@@ -4755,10 +4725,10 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4766,7 +4736,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4774,10 +4744,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F30" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -4789,20 +4759,18 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4838,14 +4806,16 @@
         <v>42</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AB30" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE30" s="2"/>
       <c r="AF30" t="s" s="2">
@@ -4859,10 +4829,10 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -4870,17 +4840,15 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>51</v>
@@ -4895,22 +4863,24 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>42</v>
@@ -4963,10 +4933,10 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
@@ -4974,7 +4944,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4994,19 +4964,21 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -5065,10 +5037,10 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
@@ -5076,18 +5048,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -5096,21 +5068,23 @@
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
@@ -5169,10 +5143,10 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -5180,7 +5154,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5203,26 +5177,26 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>42</v>
@@ -5275,10 +5249,10 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -5286,39 +5260,39 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5379,10 +5353,10 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5390,7 +5364,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5401,7 +5375,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
@@ -5410,27 +5384,27 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>42</v>
@@ -5483,18 +5457,18 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5502,7 +5476,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>51</v>
@@ -5511,23 +5485,23 @@
         <v>42</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5552,13 +5526,13 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5587,18 +5561,18 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>42</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5618,23 +5592,21 @@
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5658,13 +5630,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5693,18 +5665,18 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>42</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5712,7 +5684,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>51</v>
@@ -5727,19 +5699,17 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5764,13 +5734,13 @@
         <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>42</v>
@@ -5799,51 +5769,49 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>42</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5906,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5914,11 +5882,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5937,18 +5905,18 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>42</v>
       </c>
@@ -6007,18 +5975,18 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>226</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6029,29 +5997,31 @@
         <v>51</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N42" t="s" s="2">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6076,28 +6046,26 @@
         <v>42</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AB42" s="2"/>
       <c r="AC42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="AE42" s="2"/>
       <c r="AF42" t="s" s="2">
@@ -6111,26 +6079,28 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>235</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>51</v>
@@ -6142,20 +6112,18 @@
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -6180,13 +6148,13 @@
         <v>42</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>42</v>
@@ -6218,15 +6186,15 @@
         <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>243</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6234,7 +6202,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>51</v>
@@ -6246,21 +6214,19 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>245</v>
+        <v>62</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>246</v>
+        <v>63</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6284,13 +6250,13 @@
         <v>42</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>42</v>
@@ -6319,13 +6285,13 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>251</v>
+        <v>64</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>252</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" hidden="true">
@@ -6334,14 +6300,14 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
@@ -6353,15 +6319,17 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6436,14 +6404,14 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6452,27 +6420,29 @@
         <v>42</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>42</v>
@@ -6525,10 +6495,10 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6536,7 +6506,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6544,10 +6514,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
@@ -6559,20 +6529,18 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6608,14 +6576,16 @@
         <v>42</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AB47" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE47" s="2"/>
       <c r="AF47" t="s" s="2">
@@ -6629,10 +6599,10 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6640,17 +6610,15 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>51</v>
@@ -6665,22 +6633,24 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>42</v>
@@ -6733,10 +6703,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6744,7 +6714,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6764,19 +6734,21 @@
         <v>42</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
       </c>
@@ -6835,10 +6807,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6846,18 +6818,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
@@ -6866,21 +6838,23 @@
         <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6939,10 +6913,10 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6950,7 +6924,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6973,26 +6947,26 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>261</v>
+        <v>42</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>42</v>
@@ -7045,10 +7019,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -7064,7 +7038,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>51</v>
@@ -7079,18 +7053,20 @@
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
       </c>
@@ -7137,11 +7113,15 @@
       <c r="AD52" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE52" s="2"/>
+      <c r="AE52" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG52" s="2"/>
+      <c r="AG52" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH52" t="s" s="2">
         <v>42</v>
       </c>
@@ -7149,18 +7129,18 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7180,27 +7160,27 @@
         <v>42</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>104</v>
+        <v>272</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>42</v>
@@ -7253,18 +7233,18 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7287,17 +7267,19 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>137</v>
+        <v>280</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="N54" t="s" s="2">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7357,18 +7339,18 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7391,20 +7373,18 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7463,18 +7443,18 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>42</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7485,7 +7465,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7497,19 +7477,17 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>137</v>
+        <v>296</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>211</v>
+        <v>297</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -7569,18 +7547,18 @@
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>216</v>
+        <v>301</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>42</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7591,7 +7569,7 @@
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -7603,19 +7581,19 @@
         <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -7663,11 +7641,15 @@
       <c r="AD57" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE57" s="2"/>
+      <c r="AE57" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG57" s="2"/>
+      <c r="AG57" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7675,18 +7657,18 @@
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>276</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7697,7 +7679,7 @@
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
@@ -7709,17 +7691,19 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>278</v>
+        <v>150</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N58" t="s" s="2">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -7744,13 +7728,11 @@
         <v>42</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7767,34 +7749,38 @@
       <c r="AD58" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE58" s="2"/>
+      <c r="AE58" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG58" s="2"/>
+      <c r="AG58" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH58" t="s" s="2">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>282</v>
+        <v>125</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>284</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7810,22 +7796,20 @@
         <v>42</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>286</v>
+        <v>150</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
@@ -7850,13 +7834,13 @@
         <v>42</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>42</v>
+        <v>324</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -7885,18 +7869,18 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>293</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7916,21 +7900,21 @@
         <v>42</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7989,18 +7973,18 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>300</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8011,7 +7995,7 @@
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
@@ -8020,20 +8004,22 @@
         <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>302</v>
+        <v>150</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="N61" t="s" s="2">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -8058,13 +8044,11 @@
         <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -8082,13 +8066,13 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>42</v>
@@ -8097,18 +8081,18 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>308</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8119,7 +8103,7 @@
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>42</v>
@@ -8128,23 +8112,19 @@
         <v>42</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>310</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>311</v>
+        <v>62</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>42</v>
       </c>
@@ -8191,15 +8171,11 @@
       <c r="AD62" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE62" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="AE62" s="2"/>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
         <v>42</v>
       </c>
@@ -8207,10 +8183,10 @@
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>316</v>
+        <v>64</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8218,18 +8194,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -8241,20 +8217,18 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>318</v>
+        <v>68</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>319</v>
+        <v>69</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8278,11 +8252,13 @@
         <v>42</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X63" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y63" t="s" s="2">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8299,26 +8275,22 @@
       <c r="AD63" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE63" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="AE63" s="2"/>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG63" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG63" s="2"/>
       <c r="AH63" t="s" s="2">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8326,18 +8298,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>42</v>
@@ -8346,20 +8318,22 @@
         <v>42</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K64" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M64" s="2"/>
+      <c r="M64" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N64" t="s" s="2">
-        <v>329</v>
+        <v>161</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8384,13 +8358,13 @@
         <v>42</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>331</v>
+        <v>42</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>42</v>
@@ -8419,10 +8393,10 @@
         <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>332</v>
+        <v>163</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>333</v>
+        <v>164</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8430,7 +8404,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8450,20 +8424,22 @@
         <v>42</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>335</v>
+        <v>205</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>337</v>
+        <v>208</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8523,10 +8499,10 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>338</v>
+        <v>209</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>339</v>
+        <v>210</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8534,7 +8510,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8545,7 +8521,7 @@
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
@@ -8557,19 +8533,19 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
@@ -8594,11 +8570,11 @@
         <v>42</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>345</v>
+        <v>90</v>
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>42</v>
@@ -8615,15 +8591,11 @@
       <c r="AD66" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE66" t="s" s="2">
-        <v>340</v>
-      </c>
+      <c r="AE66" s="2"/>
       <c r="AF66" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG66" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG66" s="2"/>
       <c r="AH66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8631,10 +8603,10 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8642,7 +8614,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8665,15 +8637,17 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>53</v>
+        <v>356</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>62</v>
+        <v>357</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -8733,10 +8707,10 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>42</v>
+        <v>360</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>64</v>
+        <v>361</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8744,18 +8718,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
@@ -8767,16 +8741,16 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>67</v>
+        <v>363</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>68</v>
+        <v>364</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>70</v>
+        <v>366</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -8825,11 +8799,15 @@
       <c r="AD68" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE68" s="2"/>
+      <c r="AE68" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG68" s="2"/>
+      <c r="AG68" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH68" t="s" s="2">
         <v>42</v>
       </c>
@@ -8837,10 +8815,10 @@
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>42</v>
+        <v>367</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>64</v>
+        <v>368</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8848,7 +8826,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8859,7 +8837,7 @@
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
@@ -8868,22 +8846,22 @@
         <v>42</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>86</v>
+        <v>370</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>164</v>
+        <v>371</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>165</v>
+        <v>372</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>166</v>
+        <v>373</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>167</v>
+        <v>374</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -8931,22 +8909,26 @@
       <c r="AD69" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE69" s="2"/>
+      <c r="AE69" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG69" s="2"/>
+      <c r="AG69" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>42</v>
+        <v>375</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>169</v>
+        <v>376</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>170</v>
+        <v>377</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8954,7 +8936,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8974,23 +8956,19 @@
         <v>42</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>42</v>
       </c>
@@ -9049,10 +9027,10 @@
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>216</v>
+        <v>64</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -9060,18 +9038,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>42</v>
@@ -9083,20 +9061,18 @@
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>354</v>
+        <v>68</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>355</v>
+        <v>69</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>42</v>
       </c>
@@ -9120,11 +9096,13 @@
         <v>42</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X71" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y71" t="s" s="2">
-        <v>358</v>
+        <v>42</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>42</v>
@@ -9153,10 +9131,10 @@
         <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>359</v>
+        <v>42</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>360</v>
+        <v>64</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>42</v>
@@ -9164,39 +9142,39 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>42</v>
+        <v>381</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>362</v>
+        <v>67</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>363</v>
+        <v>212</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>365</v>
+        <v>70</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9257,10 +9235,10 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>366</v>
+        <v>42</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>367</v>
+        <v>125</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
@@ -9268,7 +9246,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9279,7 +9257,7 @@
         <v>40</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>42</v>
@@ -9291,17 +9269,15 @@
         <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>42</v>
@@ -9349,26 +9325,22 @@
       <c r="AD73" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE73" t="s" s="2">
-        <v>368</v>
-      </c>
+      <c r="AE73" s="2"/>
       <c r="AF73" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG73" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG73" s="2"/>
       <c r="AH73" t="s" s="2">
-        <v>42</v>
+        <v>387</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>42</v>
@@ -9376,7 +9348,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9387,7 +9359,7 @@
         <v>40</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>42</v>
@@ -9399,20 +9371,16 @@
         <v>42</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9459,26 +9427,22 @@
       <c r="AD74" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE74" t="s" s="2">
-        <v>375</v>
-      </c>
+      <c r="AE74" s="2"/>
       <c r="AF74" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG74" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG74" s="2"/>
       <c r="AH74" t="s" s="2">
-        <v>42</v>
+        <v>387</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>381</v>
+        <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>42</v>
@@ -9486,7 +9450,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9509,16 +9473,20 @@
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>62</v>
+        <v>395</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>42</v>
       </c>
@@ -9542,13 +9510,13 @@
         <v>42</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>42</v>
+        <v>399</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>42</v>
@@ -9577,10 +9545,10 @@
         <v>42</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>64</v>
+        <v>327</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>42</v>
@@ -9588,18 +9556,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>42</v>
@@ -9611,18 +9579,18 @@
         <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>68</v>
+        <v>404</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>42</v>
       </c>
@@ -9684,7 +9652,7 @@
         <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>64</v>
+        <v>407</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>42</v>
@@ -9692,40 +9660,38 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>387</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>218</v>
+        <v>409</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -9785,10 +9751,10 @@
         <v>42</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>125</v>
+        <v>411</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>42</v>
@@ -9796,7 +9762,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9816,19 +9782,23 @@
         <v>42</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
       </c>
@@ -9864,33 +9834,35 @@
         <v>42</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="AB78" s="2"/>
       <c r="AC78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE78" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG78" s="2"/>
+      <c r="AG78" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH78" t="s" s="2">
-        <v>393</v>
+        <v>42</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>42</v>
@@ -9898,9 +9870,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="C79" t="s" s="2">
         <v>42</v>
       </c>
@@ -9918,16 +9892,16 @@
         <v>42</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9977,22 +9951,26 @@
       <c r="AD79" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE79" s="2"/>
+      <c r="AE79" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG79" s="2"/>
+      <c r="AG79" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH79" t="s" s="2">
-        <v>393</v>
+        <v>42</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>42</v>
@@ -10000,7 +9978,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10023,20 +10001,16 @@
         <v>42</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>401</v>
+        <v>62</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>42</v>
       </c>
@@ -10060,13 +10034,13 @@
         <v>42</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>405</v>
+        <v>42</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>406</v>
+        <v>42</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>42</v>
@@ -10095,10 +10069,10 @@
         <v>42</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>407</v>
+        <v>42</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>333</v>
+        <v>64</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>42</v>
@@ -10106,18 +10080,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>42</v>
@@ -10129,18 +10103,18 @@
         <v>42</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>409</v>
+        <v>67</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>410</v>
+        <v>68</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>42</v>
       </c>
@@ -10202,7 +10176,7 @@
         <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>413</v>
+        <v>64</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>42</v>
@@ -10210,38 +10184,40 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>42</v>
+        <v>381</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>415</v>
+        <v>212</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -10301,10 +10277,10 @@
         <v>42</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>394</v>
+        <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>417</v>
+        <v>125</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>42</v>
@@ -10312,7 +10288,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10332,29 +10308,29 @@
         <v>42</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>376</v>
+        <v>104</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>42</v>
+        <v>431</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>42</v>
@@ -10372,36 +10348,34 @@
         <v>42</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>42</v>
+        <v>432</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>42</v>
+        <v>433</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AB83" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AE83" s="2"/>
       <c r="AF83" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG83" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG83" s="2"/>
       <c r="AH83" t="s" s="2">
         <v>42</v>
       </c>
@@ -10409,10 +10383,10 @@
         <v>42</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>424</v>
+        <v>125</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>42</v>
@@ -10420,17 +10394,15 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>51</v>
@@ -10442,16 +10414,16 @@
         <v>42</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>376</v>
+        <v>436</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10501,15 +10473,11 @@
       <c r="AD84" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE84" t="s" s="2">
-        <v>418</v>
-      </c>
+      <c r="AE84" s="2"/>
       <c r="AF84" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG84" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG84" s="2"/>
       <c r="AH84" t="s" s="2">
         <v>42</v>
       </c>
@@ -10517,10 +10485,10 @@
         <v>42</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>424</v>
+        <v>42</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>42</v>
@@ -10528,9 +10496,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B85" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="C85" t="s" s="2">
         <v>42</v>
       </c>
@@ -10548,16 +10518,16 @@
         <v>42</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>53</v>
+        <v>370</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>62</v>
+        <v>441</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>63</v>
+        <v>442</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10607,11 +10577,15 @@
       <c r="AD85" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE85" s="2"/>
+      <c r="AE85" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG85" s="2"/>
+      <c r="AG85" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH85" t="s" s="2">
         <v>42</v>
       </c>
@@ -10619,10 +10593,10 @@
         <v>42</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>42</v>
+        <v>418</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>64</v>
+        <v>419</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>42</v>
@@ -10630,18 +10604,18 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>42</v>
@@ -10653,17 +10627,15 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>42</v>
@@ -10734,11 +10706,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>387</v>
+        <v>66</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -10751,7 +10723,7 @@
         <v>42</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>42</v>
@@ -10760,10 +10732,10 @@
         <v>67</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>388</v>
+        <v>69</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>70</v>
@@ -10830,7 +10802,7 @@
         <v>42</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>42</v>
@@ -10838,49 +10810,47 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>42</v>
+        <v>381</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>433</v>
+        <v>212</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>437</v>
+        <v>42</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>42</v>
@@ -10898,13 +10868,13 @@
         <v>42</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>438</v>
+        <v>42</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>439</v>
+        <v>42</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>42</v>
@@ -10933,10 +10903,10 @@
         <v>42</v>
       </c>
       <c r="AJ88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>42</v>
@@ -10944,7 +10914,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10952,7 +10922,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>51</v>
@@ -10967,22 +10937,26 @@
         <v>42</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>442</v>
+        <v>104</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
-        <v>42</v>
+        <v>431</v>
       </c>
       <c r="R89" t="s" s="2">
         <v>42</v>
@@ -11000,13 +10974,13 @@
         <v>42</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>42</v>
+        <v>432</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>42</v>
+        <v>433</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>42</v>
@@ -11035,10 +11009,10 @@
         <v>42</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>42</v>
@@ -11046,17 +11020,15 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>51</v>
@@ -11068,16 +11040,16 @@
         <v>42</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>376</v>
+        <v>443</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11127,15 +11099,11 @@
       <c r="AD90" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE90" t="s" s="2">
-        <v>418</v>
-      </c>
+      <c r="AE90" s="2"/>
       <c r="AF90" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG90" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG90" s="2"/>
       <c r="AH90" t="s" s="2">
         <v>42</v>
       </c>
@@ -11143,10 +11111,10 @@
         <v>42</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>424</v>
+        <v>42</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>42</v>
@@ -11154,9 +11122,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B91" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="C91" t="s" s="2">
         <v>42</v>
       </c>
@@ -11174,16 +11144,16 @@
         <v>42</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>53</v>
+        <v>370</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>62</v>
+        <v>445</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>63</v>
+        <v>446</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11233,11 +11203,15 @@
       <c r="AD91" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE91" s="2"/>
+      <c r="AE91" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG91" s="2"/>
+      <c r="AG91" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH91" t="s" s="2">
         <v>42</v>
       </c>
@@ -11245,10 +11219,10 @@
         <v>42</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>42</v>
+        <v>418</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>64</v>
+        <v>419</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>42</v>
@@ -11256,18 +11230,18 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>42</v>
@@ -11279,17 +11253,15 @@
         <v>42</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>42</v>
@@ -11360,11 +11332,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>387</v>
+        <v>66</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11377,7 +11349,7 @@
         <v>42</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>42</v>
@@ -11386,10 +11358,10 @@
         <v>67</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>388</v>
+        <v>69</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>70</v>
@@ -11456,7 +11428,7 @@
         <v>42</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>42</v>
@@ -11464,49 +11436,47 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>42</v>
+        <v>381</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>433</v>
+        <v>212</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>437</v>
+        <v>42</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>42</v>
@@ -11524,13 +11494,13 @@
         <v>42</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>438</v>
+        <v>42</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>439</v>
+        <v>42</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>42</v>
@@ -11559,10 +11529,10 @@
         <v>42</v>
       </c>
       <c r="AJ94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK94" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>42</v>
@@ -11570,7 +11540,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11578,7 +11548,7 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>51</v>
@@ -11593,22 +11563,26 @@
         <v>42</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>449</v>
+        <v>104</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
-        <v>42</v>
+        <v>431</v>
       </c>
       <c r="R95" t="s" s="2">
         <v>42</v>
@@ -11626,13 +11600,13 @@
         <v>42</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>42</v>
+        <v>432</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>42</v>
+        <v>433</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>42</v>
@@ -11661,10 +11635,10 @@
         <v>42</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>42</v>
@@ -11672,17 +11646,15 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>51</v>
@@ -11694,16 +11666,16 @@
         <v>42</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>376</v>
+        <v>447</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -11753,15 +11725,11 @@
       <c r="AD96" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE96" t="s" s="2">
-        <v>418</v>
-      </c>
+      <c r="AE96" s="2"/>
       <c r="AF96" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG96" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG96" s="2"/>
       <c r="AH96" t="s" s="2">
         <v>42</v>
       </c>
@@ -11769,10 +11737,10 @@
         <v>42</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>424</v>
+        <v>42</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>42</v>
@@ -11780,9 +11748,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B97" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="C97" t="s" s="2">
         <v>42</v>
       </c>
@@ -11800,16 +11770,16 @@
         <v>42</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>53</v>
+        <v>370</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>62</v>
+        <v>449</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>63</v>
+        <v>450</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -11859,11 +11829,15 @@
       <c r="AD97" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE97" s="2"/>
+      <c r="AE97" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG97" s="2"/>
+      <c r="AG97" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH97" t="s" s="2">
         <v>42</v>
       </c>
@@ -11871,10 +11845,10 @@
         <v>42</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>42</v>
+        <v>418</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>64</v>
+        <v>419</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>42</v>
@@ -11882,18 +11856,18 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>42</v>
@@ -11905,17 +11879,15 @@
         <v>42</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>42</v>
@@ -11986,11 +11958,11 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>387</v>
+        <v>66</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12003,7 +11975,7 @@
         <v>42</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>42</v>
@@ -12012,10 +11984,10 @@
         <v>67</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>388</v>
+        <v>69</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>70</v>
@@ -12082,7 +12054,7 @@
         <v>42</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>42</v>
@@ -12090,49 +12062,47 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>42</v>
+        <v>381</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>433</v>
+        <v>212</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
-        <v>437</v>
+        <v>42</v>
       </c>
       <c r="R100" t="s" s="2">
         <v>42</v>
@@ -12150,13 +12120,13 @@
         <v>42</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>438</v>
+        <v>42</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>439</v>
+        <v>42</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>42</v>
@@ -12185,10 +12155,10 @@
         <v>42</v>
       </c>
       <c r="AJ100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>42</v>
@@ -12196,7 +12166,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12204,7 +12174,7 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>51</v>
@@ -12219,22 +12189,26 @@
         <v>42</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>453</v>
+        <v>104</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
-        <v>42</v>
+        <v>431</v>
       </c>
       <c r="R101" t="s" s="2">
         <v>42</v>
@@ -12252,13 +12226,13 @@
         <v>42</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>42</v>
+        <v>432</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>42</v>
+        <v>433</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>42</v>
@@ -12287,10 +12261,10 @@
         <v>42</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>42</v>
@@ -12298,17 +12272,15 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>51</v>
@@ -12320,16 +12292,16 @@
         <v>42</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>376</v>
+        <v>451</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12379,15 +12351,11 @@
       <c r="AD102" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE102" t="s" s="2">
-        <v>418</v>
-      </c>
+      <c r="AE102" s="2"/>
       <c r="AF102" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG102" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG102" s="2"/>
       <c r="AH102" t="s" s="2">
         <v>42</v>
       </c>
@@ -12395,10 +12363,10 @@
         <v>42</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>424</v>
+        <v>42</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>42</v>
@@ -12406,7 +12374,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12417,7 +12385,7 @@
         <v>40</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>42</v>
@@ -12426,19 +12394,23 @@
         <v>42</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>53</v>
+        <v>370</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>62</v>
+        <v>453</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>42</v>
       </c>
@@ -12485,11 +12457,15 @@
       <c r="AD103" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE103" s="2"/>
+      <c r="AE103" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG103" s="2"/>
+      <c r="AG103" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH103" t="s" s="2">
         <v>42</v>
       </c>
@@ -12497,10 +12473,10 @@
         <v>42</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>42</v>
+        <v>456</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>64</v>
+        <v>457</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>42</v>
@@ -12508,18 +12484,18 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>42</v>
@@ -12531,17 +12507,15 @@
         <v>42</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>42</v>
@@ -12612,11 +12586,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>387</v>
+        <v>66</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -12629,7 +12603,7 @@
         <v>42</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>42</v>
@@ -12638,10 +12612,10 @@
         <v>67</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>388</v>
+        <v>69</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>70</v>
@@ -12708,7 +12682,7 @@
         <v>42</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>42</v>
@@ -12716,49 +12690,47 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>42</v>
+        <v>381</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>433</v>
+        <v>212</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>437</v>
+        <v>42</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>42</v>
@@ -12776,13 +12748,13 @@
         <v>42</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>438</v>
+        <v>42</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>439</v>
+        <v>42</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>42</v>
@@ -12811,10 +12783,10 @@
         <v>42</v>
       </c>
       <c r="AJ106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK106" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>42</v>
@@ -12822,7 +12794,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -12842,19 +12814,21 @@
         <v>42</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>457</v>
+        <v>150</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
+      <c r="N107" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>42</v>
       </c>
@@ -12878,13 +12852,13 @@
         <v>42</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>42</v>
@@ -12907,24 +12881,24 @@
       </c>
       <c r="AG107" s="2"/>
       <c r="AH107" t="s" s="2">
-        <v>42</v>
+        <v>464</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>445</v>
+        <v>245</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>42</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -12935,7 +12909,7 @@
         <v>40</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>42</v>
@@ -12947,19 +12921,19 @@
         <v>52</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>460</v>
+        <v>306</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>461</v>
+        <v>308</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>42</v>
@@ -13007,15 +12981,11 @@
       <c r="AD108" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE108" t="s" s="2">
-        <v>458</v>
-      </c>
+      <c r="AE108" s="2"/>
       <c r="AF108" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG108" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG108" s="2"/>
       <c r="AH108" t="s" s="2">
         <v>42</v>
       </c>
@@ -13023,10 +12993,10 @@
         <v>42</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>462</v>
+        <v>309</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>463</v>
+        <v>310</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>42</v>
@@ -13034,7 +13004,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13057,16 +13027,20 @@
         <v>42</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>62</v>
+        <v>469</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>42</v>
       </c>
@@ -13090,13 +13064,11 @@
         <v>42</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X109" s="2"/>
       <c r="Y109" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>42</v>
@@ -13119,16 +13091,16 @@
       </c>
       <c r="AG109" s="2"/>
       <c r="AH109" t="s" s="2">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>64</v>
+        <v>318</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>42</v>
@@ -13136,11 +13108,11 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -13159,18 +13131,20 @@
         <v>42</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>67</v>
+        <v>370</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>68</v>
+        <v>472</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>69</v>
+        <v>372</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>42</v>
       </c>
@@ -13229,10 +13203,10 @@
         <v>42</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>64</v>
+        <v>377</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>42</v>
@@ -13240,40 +13214,38 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>387</v>
+        <v>42</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>42</v>
@@ -13336,7 +13308,7 @@
         <v>42</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>42</v>
@@ -13344,18 +13316,18 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>42</v>
@@ -13364,21 +13336,21 @@
         <v>42</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>468</v>
+        <v>68</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>42</v>
       </c>
@@ -13402,13 +13374,13 @@
         <v>42</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>42</v>
@@ -13431,60 +13403,58 @@
       </c>
       <c r="AG112" s="2"/>
       <c r="AH112" t="s" s="2">
-        <v>470</v>
+        <v>42</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>251</v>
+        <v>64</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>252</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>42</v>
+        <v>381</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>310</v>
+        <v>67</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>472</v>
+        <v>212</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>42</v>
       </c>
@@ -13543,10 +13513,10 @@
         <v>42</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>316</v>
+        <v>125</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>42</v>
@@ -13554,7 +13524,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13577,20 +13547,16 @@
         <v>42</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>159</v>
+        <v>384</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>475</v>
+        <v>385</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>42</v>
       </c>
@@ -13614,11 +13580,13 @@
         <v>42</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X114" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y114" t="s" s="2">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>42</v>
@@ -13641,16 +13609,16 @@
       </c>
       <c r="AG114" s="2"/>
       <c r="AH114" t="s" s="2">
-        <v>323</v>
+        <v>387</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>125</v>
+        <v>388</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>324</v>
+        <v>389</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>42</v>
@@ -13669,7 +13637,7 @@
         <v>40</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>42</v>
@@ -13681,20 +13649,16 @@
         <v>42</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>478</v>
+        <v>391</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>42</v>
       </c>
@@ -13747,16 +13711,16 @@
       </c>
       <c r="AG115" s="2"/>
       <c r="AH115" t="s" s="2">
-        <v>42</v>
+        <v>387</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>42</v>
@@ -13764,7 +13728,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -13787,16 +13751,20 @@
         <v>42</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>62</v>
+        <v>395</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>42</v>
       </c>
@@ -13820,13 +13788,13 @@
         <v>42</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>42</v>
+        <v>399</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>42</v>
@@ -13855,10 +13823,10 @@
         <v>42</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>64</v>
+        <v>327</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>42</v>
@@ -13866,18 +13834,18 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>42</v>
@@ -13889,18 +13857,18 @@
         <v>42</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>68</v>
+        <v>404</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M117" s="2"/>
+      <c r="N117" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O117" t="s" s="2">
         <v>42</v>
       </c>
@@ -13962,7 +13930,7 @@
         <v>42</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>64</v>
+        <v>407</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>42</v>
@@ -13970,40 +13938,38 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>387</v>
+        <v>42</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>218</v>
+        <v>409</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M118" s="2"/>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>42</v>
@@ -14063,533 +14029,17 @@
         <v>42</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>125</v>
+        <v>411</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE119" s="2"/>
-      <c r="AF119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG119" s="2"/>
-      <c r="AH119" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE120" s="2"/>
-      <c r="AF120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG120" s="2"/>
-      <c r="AH120" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F121" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P121" s="2"/>
-      <c r="Q121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE121" s="2"/>
-      <c r="AF121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG121" s="2"/>
-      <c r="AH121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F122" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE122" s="2"/>
-      <c r="AF122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG122" s="2"/>
-      <c r="AH122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F123" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE123" s="2"/>
-      <c r="AF123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG123" s="2"/>
-      <c r="AH123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AL123" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL123">
+  <autoFilter ref="A1:AL118">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14599,7 +14049,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI122">
+  <conditionalFormatting sqref="A2:AI117">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
